--- a/data/news/网易.xlsx
+++ b/data/news/网易.xlsx
@@ -4700,16 +4700,9 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5187,13 +5180,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5202,127 +5198,123 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5634,10 +5626,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B782"/>
+  <dimension ref="A1:B781"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A741" workbookViewId="0">
+      <selection activeCell="A761" sqref="A761"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -8079,2050 +8071,2050 @@
       </c>
     </row>
     <row r="305" ht="15" spans="1:2">
-      <c r="A305" s="2" t="s">
+      <c r="A305" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B305" s="1" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="306" ht="15" spans="1:2">
-      <c r="A306" s="2" t="s">
+      <c r="A306" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B306" s="1" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="307" ht="15" spans="1:2">
-      <c r="A307" s="2" t="s">
+      <c r="A307" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B307" s="1" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="308" ht="15" spans="1:2">
-      <c r="A308" s="2" t="s">
+      <c r="A308" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B308" s="1" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="309" ht="15" spans="1:2">
-      <c r="A309" s="2" t="s">
+      <c r="A309" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" s="1" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="310" ht="15" spans="1:2">
-      <c r="A310" s="2" t="s">
+      <c r="A310" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="B310" s="1" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="311" ht="15" spans="1:2">
-      <c r="A311" s="2" t="s">
+      <c r="A311" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B311" s="1" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="312" ht="15" spans="1:2">
-      <c r="A312" s="2" t="s">
+      <c r="A312" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B312" s="1" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="313" ht="15" spans="1:2">
-      <c r="A313" s="2" t="s">
+      <c r="A313" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B313" s="1" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="314" ht="15" spans="1:2">
-      <c r="A314" s="2" t="s">
+      <c r="A314" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B314" s="1" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="315" ht="15" spans="1:2">
-      <c r="A315" s="2" t="s">
+      <c r="A315" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B315" s="1" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="316" ht="15" spans="1:2">
-      <c r="A316" s="2" t="s">
+      <c r="A316" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B316" s="1" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="317" ht="15" spans="1:2">
-      <c r="A317" s="2" t="s">
+      <c r="A317" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B317" s="1" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="318" ht="15" spans="1:2">
-      <c r="A318" s="2" t="s">
+      <c r="A318" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B318" s="2" t="s">
+      <c r="B318" s="1" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="319" ht="15" spans="1:2">
-      <c r="A319" s="2" t="s">
+      <c r="A319" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B319" s="1" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="320" ht="15" spans="1:2">
-      <c r="A320" s="2" t="s">
+      <c r="A320" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B320" s="1" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="321" ht="15" spans="1:2">
-      <c r="A321" s="2" t="s">
+      <c r="A321" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B321" s="1" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="322" ht="15" spans="1:2">
-      <c r="A322" s="2" t="s">
+      <c r="A322" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B322" s="1" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="323" ht="15" spans="1:2">
-      <c r="A323" s="2" t="s">
+      <c r="A323" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B323" s="1" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="324" ht="15" spans="1:2">
-      <c r="A324" s="2" t="s">
+      <c r="A324" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B324" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="325" ht="15" spans="1:2">
-      <c r="A325" s="2" t="s">
+      <c r="A325" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B325" s="1" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="326" ht="15" spans="1:2">
-      <c r="A326" s="2" t="s">
+      <c r="A326" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B326" s="1" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="327" ht="15" spans="1:2">
-      <c r="A327" s="2" t="s">
+      <c r="A327" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B327" s="1" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="328" ht="15" spans="1:2">
-      <c r="A328" s="2" t="s">
+      <c r="A328" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B328" s="2" t="s">
+      <c r="B328" s="1" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="329" ht="15" spans="1:2">
-      <c r="A329" s="2" t="s">
+      <c r="A329" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="B329" s="1" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="330" ht="15" spans="1:2">
-      <c r="A330" s="2" t="s">
+      <c r="A330" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B330" s="1" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="331" ht="15" spans="1:2">
-      <c r="A331" s="2" t="s">
+      <c r="A331" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B331" s="1" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="332" ht="15" spans="1:2">
-      <c r="A332" s="2" t="s">
+      <c r="A332" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B332" s="1" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="333" ht="15" spans="1:2">
-      <c r="A333" s="2" t="s">
+      <c r="A333" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B333" s="1" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="334" ht="15" spans="1:2">
-      <c r="A334" s="2" t="s">
+      <c r="A334" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B334" s="1" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="335" ht="15" spans="1:2">
-      <c r="A335" s="2" t="s">
+      <c r="A335" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B335" s="1" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="336" ht="15" spans="1:2">
-      <c r="A336" s="2" t="s">
+      <c r="A336" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B336" s="1" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="337" ht="15" spans="1:2">
-      <c r="A337" s="2" t="s">
+      <c r="A337" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B337" s="1" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="338" ht="15" spans="1:2">
-      <c r="A338" s="2" t="s">
+      <c r="A338" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="B338" s="1" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="339" ht="15" spans="1:2">
-      <c r="A339" s="2" t="s">
+      <c r="A339" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B339" s="1" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="340" ht="15" spans="1:2">
-      <c r="A340" s="2" t="s">
+      <c r="A340" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B340" s="1" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="341" ht="15" spans="1:2">
-      <c r="A341" s="2" t="s">
+      <c r="A341" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B341" s="1" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="342" ht="15" spans="1:2">
-      <c r="A342" s="2" t="s">
+      <c r="A342" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B342" s="1" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="343" ht="15" spans="1:2">
-      <c r="A343" s="2" t="s">
+      <c r="A343" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B343" s="1" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="344" ht="15" spans="1:2">
-      <c r="A344" s="2" t="s">
+      <c r="A344" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" s="1" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="345" ht="15" spans="1:2">
-      <c r="A345" s="2" t="s">
+      <c r="A345" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B345" s="2" t="s">
+      <c r="B345" s="1" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="346" ht="15" spans="1:2">
-      <c r="A346" s="2" t="s">
+      <c r="A346" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B346" s="2" t="s">
+      <c r="B346" s="1" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="347" ht="15" spans="1:2">
-      <c r="A347" s="2" t="s">
+      <c r="A347" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B347" s="2" t="s">
+      <c r="B347" s="1" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="348" ht="15" spans="1:2">
-      <c r="A348" s="2" t="s">
+      <c r="A348" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B348" s="2" t="s">
+      <c r="B348" s="1" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="349" ht="15" spans="1:2">
-      <c r="A349" s="2" t="s">
+      <c r="A349" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B349" s="2" t="s">
+      <c r="B349" s="1" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="350" ht="15" spans="1:2">
-      <c r="A350" s="2" t="s">
+      <c r="A350" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B350" s="2" t="s">
+      <c r="B350" s="1" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="351" ht="15" spans="1:2">
-      <c r="A351" s="2" t="s">
+      <c r="A351" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B351" s="1" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="352" ht="15" spans="1:2">
-      <c r="A352" s="2" t="s">
+      <c r="A352" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B352" s="2" t="s">
+      <c r="B352" s="1" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="353" ht="15" spans="1:2">
-      <c r="A353" s="2" t="s">
+      <c r="A353" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="B353" s="1" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="354" ht="15" spans="1:2">
-      <c r="A354" s="2" t="s">
+      <c r="A354" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B354" s="1" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="355" ht="15" spans="1:2">
-      <c r="A355" s="2" t="s">
+      <c r="A355" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B355" s="1" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="356" ht="15" spans="1:2">
-      <c r="A356" s="2" t="s">
+      <c r="A356" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B356" s="1" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="357" ht="15" spans="1:2">
-      <c r="A357" s="2" t="s">
+      <c r="A357" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B357" s="1" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="358" ht="15" spans="1:2">
-      <c r="A358" s="2" t="s">
+      <c r="A358" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B358" s="2" t="s">
+      <c r="B358" s="1" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="359" ht="15" spans="1:2">
-      <c r="A359" s="2" t="s">
+      <c r="A359" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" s="1" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="360" ht="15" spans="1:2">
-      <c r="A360" s="2" t="s">
+      <c r="A360" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B360" s="1" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="361" ht="15" spans="1:2">
-      <c r="A361" s="2" t="s">
+      <c r="A361" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B361" s="2" t="s">
+      <c r="B361" s="1" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="362" ht="15" spans="1:2">
-      <c r="A362" s="2" t="s">
+      <c r="A362" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B362" s="1" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="363" ht="15" spans="1:2">
-      <c r="A363" s="2" t="s">
+      <c r="A363" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="B363" s="1" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="364" ht="15" spans="1:2">
-      <c r="A364" s="2" t="s">
+      <c r="A364" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B364" s="1" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="365" ht="15" spans="1:2">
-      <c r="A365" s="2" t="s">
+      <c r="A365" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="1" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="366" ht="15" spans="1:2">
-      <c r="A366" s="2" t="s">
+      <c r="A366" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B366" s="1" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="367" ht="15" spans="1:2">
-      <c r="A367" s="2" t="s">
+      <c r="A367" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="B367" s="1" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="368" ht="15" spans="1:2">
-      <c r="A368" s="2" t="s">
+      <c r="A368" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B368" s="1" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="369" ht="15" spans="1:2">
-      <c r="A369" s="2" t="s">
+      <c r="A369" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B369" s="1" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="370" ht="15" spans="1:2">
-      <c r="A370" s="2" t="s">
+      <c r="A370" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B370" s="1" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="371" ht="15" spans="1:2">
-      <c r="A371" s="2" t="s">
+      <c r="A371" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B371" s="1" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="372" ht="15" spans="1:2">
-      <c r="A372" s="2" t="s">
+      <c r="A372" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B372" s="1" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="373" ht="15" spans="1:2">
-      <c r="A373" s="2" t="s">
+      <c r="A373" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="1" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="374" ht="15" spans="1:2">
-      <c r="A374" s="2" t="s">
+      <c r="A374" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B374" s="1" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="375" ht="15" spans="1:2">
-      <c r="A375" s="2" t="s">
+      <c r="A375" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B375" s="1" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="376" ht="15" spans="1:2">
-      <c r="A376" s="2" t="s">
+      <c r="A376" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B376" s="1" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="377" ht="15" spans="1:2">
-      <c r="A377" s="2" t="s">
+      <c r="A377" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B377" s="1" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="378" ht="15" spans="1:2">
-      <c r="A378" s="2" t="s">
+      <c r="A378" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="B378" s="1" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="379" ht="15" spans="1:2">
-      <c r="A379" s="2" t="s">
+      <c r="A379" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="380" ht="15" spans="1:2">
-      <c r="A380" s="2" t="s">
+      <c r="A380" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B380" s="1" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="381" ht="15" spans="1:2">
-      <c r="A381" s="2" t="s">
+      <c r="A381" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="B381" s="1" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="382" ht="15" spans="1:2">
-      <c r="A382" s="2" t="s">
+      <c r="A382" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B382" s="2" t="s">
+      <c r="B382" s="1" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="383" ht="15" spans="1:2">
-      <c r="A383" s="2" t="s">
+      <c r="A383" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B383" s="1" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="384" ht="15" spans="1:2">
-      <c r="A384" s="2" t="s">
+      <c r="A384" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="B384" s="1" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="385" ht="15" spans="1:2">
-      <c r="A385" s="2" t="s">
+      <c r="A385" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B385" s="1" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="386" ht="15" spans="1:2">
-      <c r="A386" s="2" t="s">
+      <c r="A386" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="1" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="387" ht="15" spans="1:2">
-      <c r="A387" s="2" t="s">
+      <c r="A387" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B387" s="2" t="s">
+      <c r="B387" s="1" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="388" ht="15" spans="1:2">
-      <c r="A388" s="2" t="s">
+      <c r="A388" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B388" s="2" t="s">
+      <c r="B388" s="1" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="389" ht="15" spans="1:2">
-      <c r="A389" s="2" t="s">
+      <c r="A389" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B389" s="2" t="s">
+      <c r="B389" s="1" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="390" ht="15" spans="1:2">
-      <c r="A390" s="2" t="s">
+      <c r="A390" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B390" s="1" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="391" ht="15" spans="1:2">
-      <c r="A391" s="2" t="s">
+      <c r="A391" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B391" s="2" t="s">
+      <c r="B391" s="1" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="392" ht="15" spans="1:2">
-      <c r="A392" s="2" t="s">
+      <c r="A392" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B392" s="2" t="s">
+      <c r="B392" s="1" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="393" ht="15" spans="1:2">
-      <c r="A393" s="2" t="s">
+      <c r="A393" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="B393" s="2" t="s">
+      <c r="B393" s="1" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="394" ht="15" spans="1:2">
-      <c r="A394" s="2" t="s">
+      <c r="A394" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B394" s="1" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="395" ht="15" spans="1:2">
-      <c r="A395" s="2" t="s">
+      <c r="A395" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B395" s="1" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="396" ht="15" spans="1:2">
-      <c r="A396" s="2" t="s">
+      <c r="A396" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B396" s="1" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="397" ht="15" spans="1:2">
-      <c r="A397" s="2" t="s">
+      <c r="A397" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B397" s="1" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="398" ht="15" spans="1:2">
-      <c r="A398" s="2" t="s">
+      <c r="A398" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" s="1" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="399" ht="15" spans="1:2">
-      <c r="A399" s="2" t="s">
+      <c r="A399" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B399" s="1" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="400" ht="15" spans="1:2">
-      <c r="A400" s="2" t="s">
+      <c r="A400" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B400" s="2" t="s">
+      <c r="B400" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="401" ht="15" spans="1:2">
-      <c r="A401" s="2" t="s">
+      <c r="A401" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="B401" s="2" t="s">
+      <c r="B401" s="1" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="402" ht="15" spans="1:2">
-      <c r="A402" s="2" t="s">
+      <c r="A402" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B402" s="1" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="403" ht="15" spans="1:2">
-      <c r="A403" s="2" t="s">
+      <c r="A403" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="B403" s="2" t="s">
+      <c r="B403" s="1" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="404" ht="15" spans="1:2">
-      <c r="A404" s="2" t="s">
+      <c r="A404" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B404" s="2" t="s">
+      <c r="B404" s="1" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="405" ht="15" spans="1:2">
-      <c r="A405" s="2" t="s">
+      <c r="A405" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B405" s="2" t="s">
+      <c r="B405" s="1" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="406" ht="15" spans="1:2">
-      <c r="A406" s="2" t="s">
+      <c r="A406" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B406" s="1" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="407" ht="15" spans="1:2">
-      <c r="A407" s="2" t="s">
+      <c r="A407" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="B407" s="2" t="s">
+      <c r="B407" s="1" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="408" ht="15" spans="1:2">
-      <c r="A408" s="2" t="s">
+      <c r="A408" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B408" s="1" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="409" ht="15" spans="1:2">
-      <c r="A409" s="2" t="s">
+      <c r="A409" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B409" s="2" t="s">
+      <c r="B409" s="1" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="410" ht="15" spans="1:2">
-      <c r="A410" s="2" t="s">
+      <c r="A410" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="B410" s="1" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="411" ht="15" spans="1:2">
-      <c r="A411" s="2" t="s">
+      <c r="A411" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B411" s="1" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="412" ht="15" spans="1:2">
-      <c r="A412" s="2" t="s">
+      <c r="A412" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="B412" s="1" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="413" ht="15" spans="1:2">
-      <c r="A413" s="2" t="s">
+      <c r="A413" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B413" s="1" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="414" ht="15" spans="1:2">
-      <c r="A414" s="2" t="s">
+      <c r="A414" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B414" s="1" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="415" ht="15" spans="1:2">
-      <c r="A415" s="2" t="s">
+      <c r="A415" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="B415" s="1" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="416" ht="15" spans="1:2">
-      <c r="A416" s="2" t="s">
+      <c r="A416" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="B416" s="1" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="417" ht="15" spans="1:2">
-      <c r="A417" s="2" t="s">
+      <c r="A417" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B417" s="2" t="s">
+      <c r="B417" s="1" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="418" ht="15" spans="1:2">
-      <c r="A418" s="2" t="s">
+      <c r="A418" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B418" s="2" t="s">
+      <c r="B418" s="1" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="419" ht="15" spans="1:2">
-      <c r="A419" s="2" t="s">
+      <c r="A419" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B419" s="2" t="s">
+      <c r="B419" s="1" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="420" ht="15" spans="1:2">
-      <c r="A420" s="2" t="s">
+      <c r="A420" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="B420" s="2" t="s">
+      <c r="B420" s="1" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="421" ht="15" spans="1:2">
-      <c r="A421" s="2" t="s">
+      <c r="A421" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="B421" s="2" t="s">
+      <c r="B421" s="1" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="422" ht="15" spans="1:2">
-      <c r="A422" s="2" t="s">
+      <c r="A422" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="B422" s="2" t="s">
+      <c r="B422" s="1" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="423" ht="15" spans="1:2">
-      <c r="A423" s="2" t="s">
+      <c r="A423" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="B423" s="2" t="s">
+      <c r="B423" s="1" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="424" ht="15" spans="1:2">
-      <c r="A424" s="2" t="s">
+      <c r="A424" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B424" s="1" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="425" ht="15" spans="1:2">
-      <c r="A425" s="2" t="s">
+      <c r="A425" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="B425" s="2" t="s">
+      <c r="B425" s="1" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="426" ht="15" spans="1:2">
-      <c r="A426" s="2" t="s">
+      <c r="A426" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B426" s="2" t="s">
+      <c r="B426" s="1" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="427" ht="15" spans="1:2">
-      <c r="A427" s="2" t="s">
+      <c r="A427" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="B427" s="2" t="s">
+      <c r="B427" s="1" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="428" ht="15" spans="1:2">
-      <c r="A428" s="2" t="s">
+      <c r="A428" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="B428" s="2" t="s">
+      <c r="B428" s="1" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="429" ht="15" spans="1:2">
-      <c r="A429" s="2" t="s">
+      <c r="A429" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="B429" s="2" t="s">
+      <c r="B429" s="1" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="430" ht="15" spans="1:2">
-      <c r="A430" s="2" t="s">
+      <c r="A430" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="B430" s="2" t="s">
+      <c r="B430" s="1" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="431" ht="15" spans="1:2">
-      <c r="A431" s="2" t="s">
+      <c r="A431" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="B431" s="2" t="s">
+      <c r="B431" s="1" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="432" ht="15" spans="1:2">
-      <c r="A432" s="2" t="s">
+      <c r="A432" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="B432" s="2" t="s">
+      <c r="B432" s="1" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="433" ht="15" spans="1:2">
-      <c r="A433" s="2" t="s">
+      <c r="A433" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="B433" s="2" t="s">
+      <c r="B433" s="1" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="434" ht="15" spans="1:2">
-      <c r="A434" s="2" t="s">
+      <c r="A434" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="B434" s="2" t="s">
+      <c r="B434" s="1" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="435" ht="15" spans="1:2">
-      <c r="A435" s="2" t="s">
+      <c r="A435" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B435" s="1" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="436" ht="15" spans="1:2">
-      <c r="A436" s="2" t="s">
+      <c r="A436" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="B436" s="2" t="s">
+      <c r="B436" s="1" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="437" ht="15" spans="1:2">
-      <c r="A437" s="2" t="s">
+      <c r="A437" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="B437" s="2" t="s">
+      <c r="B437" s="1" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="438" ht="15" spans="1:2">
-      <c r="A438" s="2" t="s">
+      <c r="A438" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="B438" s="2" t="s">
+      <c r="B438" s="1" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="439" ht="15" spans="1:2">
-      <c r="A439" s="2" t="s">
+      <c r="A439" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="B439" s="2" t="s">
+      <c r="B439" s="1" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="440" ht="15" spans="1:2">
-      <c r="A440" s="2" t="s">
+      <c r="A440" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="B440" s="2" t="s">
+      <c r="B440" s="1" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="441" ht="15" spans="1:2">
-      <c r="A441" s="2" t="s">
+      <c r="A441" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="B441" s="2" t="s">
+      <c r="B441" s="1" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="442" ht="15" spans="1:2">
-      <c r="A442" s="2" t="s">
+      <c r="A442" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="B442" s="2" t="s">
+      <c r="B442" s="1" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="443" ht="15" spans="1:2">
-      <c r="A443" s="2" t="s">
+      <c r="A443" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="B443" s="2" t="s">
+      <c r="B443" s="1" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="444" ht="15" spans="1:2">
-      <c r="A444" s="2" t="s">
+      <c r="A444" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="B444" s="2" t="s">
+      <c r="B444" s="1" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="445" ht="15" spans="1:2">
-      <c r="A445" s="2" t="s">
+      <c r="A445" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="B445" s="2" t="s">
+      <c r="B445" s="1" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="446" ht="15" spans="1:2">
-      <c r="A446" s="2" t="s">
+      <c r="A446" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="B446" s="2" t="s">
+      <c r="B446" s="1" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="447" ht="15" spans="1:2">
-      <c r="A447" s="2" t="s">
+      <c r="A447" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="B447" s="2" t="s">
+      <c r="B447" s="1" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="448" ht="15" spans="1:2">
-      <c r="A448" s="2" t="s">
+      <c r="A448" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="B448" s="2" t="s">
+      <c r="B448" s="1" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="449" ht="15" spans="1:2">
-      <c r="A449" s="2" t="s">
+      <c r="A449" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="B449" s="2" t="s">
+      <c r="B449" s="1" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="450" ht="15" spans="1:2">
-      <c r="A450" s="2" t="s">
+      <c r="A450" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="B450" s="2" t="s">
+      <c r="B450" s="1" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="451" ht="15" spans="1:2">
-      <c r="A451" s="2" t="s">
+      <c r="A451" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="B451" s="2" t="s">
+      <c r="B451" s="1" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="452" ht="15" spans="1:2">
-      <c r="A452" s="2" t="s">
+      <c r="A452" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="B452" s="2" t="s">
+      <c r="B452" s="1" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="453" ht="15" spans="1:2">
-      <c r="A453" s="2" t="s">
+      <c r="A453" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="B453" s="2" t="s">
+      <c r="B453" s="1" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="454" ht="15" spans="1:2">
-      <c r="A454" s="2" t="s">
+      <c r="A454" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="B454" s="2" t="s">
+      <c r="B454" s="1" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="455" ht="15" spans="1:2">
-      <c r="A455" s="2" t="s">
+      <c r="A455" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="B455" s="2" t="s">
+      <c r="B455" s="1" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="456" ht="15" spans="1:2">
-      <c r="A456" s="2" t="s">
+      <c r="A456" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B456" s="1" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="457" ht="15" spans="1:2">
-      <c r="A457" s="2" t="s">
+      <c r="A457" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="B457" s="2" t="s">
+      <c r="B457" s="1" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="458" ht="15" spans="1:2">
-      <c r="A458" s="2" t="s">
+      <c r="A458" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="B458" s="2" t="s">
+      <c r="B458" s="1" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="459" ht="15" spans="1:2">
-      <c r="A459" s="2" t="s">
+      <c r="A459" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="B459" s="2" t="s">
+      <c r="B459" s="1" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="460" ht="15" spans="1:2">
-      <c r="A460" s="2" t="s">
+      <c r="A460" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="B460" s="2" t="s">
+      <c r="B460" s="1" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="461" ht="15" spans="1:2">
-      <c r="A461" s="2" t="s">
+      <c r="A461" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="B461" s="2" t="s">
+      <c r="B461" s="1" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="462" ht="15" spans="1:2">
-      <c r="A462" s="2" t="s">
+      <c r="A462" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="B462" s="2" t="s">
+      <c r="B462" s="1" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="463" ht="15" spans="1:2">
-      <c r="A463" s="2" t="s">
+      <c r="A463" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="B463" s="2" t="s">
+      <c r="B463" s="1" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="464" ht="15" spans="1:2">
-      <c r="A464" s="2" t="s">
+      <c r="A464" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="B464" s="2" t="s">
+      <c r="B464" s="1" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="465" ht="15" spans="1:2">
-      <c r="A465" s="2" t="s">
+      <c r="A465" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="B465" s="2" t="s">
+      <c r="B465" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="466" ht="15" spans="1:2">
-      <c r="A466" s="2" t="s">
+      <c r="A466" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="B466" s="2" t="s">
+      <c r="B466" s="1" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="467" ht="15" spans="1:2">
-      <c r="A467" s="2" t="s">
+      <c r="A467" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="B467" s="2" t="s">
+      <c r="B467" s="1" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="468" ht="15" spans="1:2">
-      <c r="A468" s="2" t="s">
+      <c r="A468" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="B468" s="2" t="s">
+      <c r="B468" s="1" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="469" ht="15" spans="1:2">
-      <c r="A469" s="2" t="s">
+      <c r="A469" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="B469" s="2" t="s">
+      <c r="B469" s="1" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="470" ht="15" spans="1:2">
-      <c r="A470" s="2" t="s">
+      <c r="A470" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B470" s="2" t="s">
+      <c r="B470" s="1" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="471" ht="15" spans="1:2">
-      <c r="A471" s="2" t="s">
+      <c r="A471" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B471" s="2" t="s">
+      <c r="B471" s="1" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="472" ht="15" spans="1:2">
-      <c r="A472" s="2" t="s">
+      <c r="A472" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="B472" s="2" t="s">
+      <c r="B472" s="1" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="473" ht="15" spans="1:2">
-      <c r="A473" s="2" t="s">
+      <c r="A473" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="B473" s="2" t="s">
+      <c r="B473" s="1" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="474" ht="15" spans="1:2">
-      <c r="A474" s="2" t="s">
+      <c r="A474" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="B474" s="2" t="s">
+      <c r="B474" s="1" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="475" ht="15" spans="1:2">
-      <c r="A475" s="2" t="s">
+      <c r="A475" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="B475" s="2" t="s">
+      <c r="B475" s="1" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="476" ht="15" spans="1:2">
-      <c r="A476" s="2" t="s">
+      <c r="A476" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="B476" s="2" t="s">
+      <c r="B476" s="1" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="477" ht="15" spans="1:2">
-      <c r="A477" s="2" t="s">
+      <c r="A477" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B477" s="2" t="s">
+      <c r="B477" s="1" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="478" ht="15" spans="1:2">
-      <c r="A478" s="2" t="s">
+      <c r="A478" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="B478" s="2" t="s">
+      <c r="B478" s="1" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="479" ht="15" spans="1:2">
-      <c r="A479" s="2" t="s">
+      <c r="A479" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="B479" s="2" t="s">
+      <c r="B479" s="1" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="480" ht="15" spans="1:2">
-      <c r="A480" s="2" t="s">
+      <c r="A480" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="B480" s="2" t="s">
+      <c r="B480" s="1" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="481" ht="15" spans="1:2">
-      <c r="A481" s="2" t="s">
+      <c r="A481" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="B481" s="2" t="s">
+      <c r="B481" s="1" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="482" ht="15" spans="1:2">
-      <c r="A482" s="2" t="s">
+      <c r="A482" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="B482" s="2" t="s">
+      <c r="B482" s="1" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="483" ht="15" spans="1:2">
-      <c r="A483" s="2" t="s">
+      <c r="A483" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="B483" s="2" t="s">
+      <c r="B483" s="1" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="484" ht="15" spans="1:2">
-      <c r="A484" s="2" t="s">
+      <c r="A484" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="B484" s="2" t="s">
+      <c r="B484" s="1" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="485" ht="15" spans="1:2">
-      <c r="A485" s="2" t="s">
+      <c r="A485" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="B485" s="2" t="s">
+      <c r="B485" s="1" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="486" ht="15" spans="1:2">
-      <c r="A486" s="2" t="s">
+      <c r="A486" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="B486" s="2" t="s">
+      <c r="B486" s="1" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="487" ht="15" spans="1:2">
-      <c r="A487" s="2" t="s">
+      <c r="A487" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="B487" s="2" t="s">
+      <c r="B487" s="1" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="488" ht="15" spans="1:2">
-      <c r="A488" s="2" t="s">
+      <c r="A488" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="B488" s="2" t="s">
+      <c r="B488" s="1" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="489" ht="15" spans="1:2">
-      <c r="A489" s="2" t="s">
+      <c r="A489" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="B489" s="2" t="s">
+      <c r="B489" s="1" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="490" ht="15" spans="1:2">
-      <c r="A490" s="2" t="s">
+      <c r="A490" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B490" s="2" t="s">
+      <c r="B490" s="1" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="491" ht="15" spans="1:2">
-      <c r="A491" s="2" t="s">
+      <c r="A491" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B491" s="2" t="s">
+      <c r="B491" s="1" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="492" ht="15" spans="1:2">
-      <c r="A492" s="2" t="s">
+      <c r="A492" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="B492" s="2" t="s">
+      <c r="B492" s="1" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="493" ht="15" spans="1:2">
-      <c r="A493" s="2" t="s">
+      <c r="A493" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="B493" s="2" t="s">
+      <c r="B493" s="1" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="494" ht="15" spans="1:2">
-      <c r="A494" s="2" t="s">
+      <c r="A494" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="B494" s="2" t="s">
+      <c r="B494" s="1" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="495" ht="15" spans="1:2">
-      <c r="A495" s="2" t="s">
+      <c r="A495" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="B495" s="2" t="s">
+      <c r="B495" s="1" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="496" ht="15" spans="1:2">
-      <c r="A496" s="2" t="s">
+      <c r="A496" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="B496" s="2" t="s">
+      <c r="B496" s="1" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="497" ht="15" spans="1:2">
-      <c r="A497" s="2" t="s">
+      <c r="A497" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="B497" s="2" t="s">
+      <c r="B497" s="1" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="498" ht="15" spans="1:2">
-      <c r="A498" s="2" t="s">
+      <c r="A498" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B498" s="2" t="s">
+      <c r="B498" s="1" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="499" ht="15" spans="1:2">
-      <c r="A499" s="2" t="s">
+      <c r="A499" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="B499" s="2" t="s">
+      <c r="B499" s="1" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="500" ht="15" spans="1:2">
-      <c r="A500" s="2" t="s">
+      <c r="A500" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="B500" s="2" t="s">
+      <c r="B500" s="1" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="501" ht="15" spans="1:2">
-      <c r="A501" s="2" t="s">
+      <c r="A501" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="B501" s="2" t="s">
+      <c r="B501" s="1" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="502" ht="15" spans="1:2">
-      <c r="A502" s="2" t="s">
+      <c r="A502" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="B502" s="2" t="s">
+      <c r="B502" s="1" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="503" ht="15" spans="1:2">
-      <c r="A503" s="2" t="s">
+      <c r="A503" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B503" s="2" t="s">
+      <c r="B503" s="1" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="504" ht="15" spans="1:2">
-      <c r="A504" s="2" t="s">
+      <c r="A504" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="B504" s="2" t="s">
+      <c r="B504" s="1" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="505" ht="15" spans="1:2">
-      <c r="A505" s="2" t="s">
+      <c r="A505" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="B505" s="2" t="s">
+      <c r="B505" s="1" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="506" ht="15" spans="1:2">
-      <c r="A506" s="2" t="s">
+      <c r="A506" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="B506" s="2" t="s">
+      <c r="B506" s="1" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="507" ht="15" spans="1:2">
-      <c r="A507" s="2" t="s">
+      <c r="A507" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B507" s="2" t="s">
+      <c r="B507" s="1" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="508" ht="15" spans="1:2">
-      <c r="A508" s="2" t="s">
+      <c r="A508" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B508" s="2" t="s">
+      <c r="B508" s="1" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="509" ht="15" spans="1:2">
-      <c r="A509" s="2" t="s">
+      <c r="A509" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B509" s="2" t="s">
+      <c r="B509" s="1" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="510" ht="15" spans="1:2">
-      <c r="A510" s="2" t="s">
+      <c r="A510" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="B510" s="2" t="s">
+      <c r="B510" s="1" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="511" ht="15" spans="1:2">
-      <c r="A511" s="2" t="s">
+      <c r="A511" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="B511" s="2" t="s">
+      <c r="B511" s="1" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="512" ht="15" spans="1:2">
-      <c r="A512" s="2" t="s">
+      <c r="A512" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="B512" s="2" t="s">
+      <c r="B512" s="1" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="513" ht="15" spans="1:2">
-      <c r="A513" s="2" t="s">
+      <c r="A513" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="B513" s="2" t="s">
+      <c r="B513" s="1" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="514" ht="15" spans="1:2">
-      <c r="A514" s="2" t="s">
+      <c r="A514" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="B514" s="2" t="s">
+      <c r="B514" s="1" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="515" ht="15" spans="1:2">
-      <c r="A515" s="2" t="s">
+      <c r="A515" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B515" s="2" t="s">
+      <c r="B515" s="1" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="516" ht="15" spans="1:2">
-      <c r="A516" s="2" t="s">
+      <c r="A516" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="B516" s="2" t="s">
+      <c r="B516" s="1" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="517" ht="15" spans="1:2">
-      <c r="A517" s="2" t="s">
+      <c r="A517" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="B517" s="2" t="s">
+      <c r="B517" s="1" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="518" ht="15" spans="1:2">
-      <c r="A518" s="2" t="s">
+      <c r="A518" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="B518" s="2" t="s">
+      <c r="B518" s="1" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="519" ht="15" spans="1:2">
-      <c r="A519" s="2" t="s">
+      <c r="A519" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="B519" s="2" t="s">
+      <c r="B519" s="1" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="520" ht="15" spans="1:2">
-      <c r="A520" s="2" t="s">
+      <c r="A520" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="B520" s="2" t="s">
+      <c r="B520" s="1" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="521" ht="15" spans="1:2">
-      <c r="A521" s="2" t="s">
+      <c r="A521" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B521" s="2" t="s">
+      <c r="B521" s="1" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="522" ht="15" spans="1:2">
-      <c r="A522" s="2" t="s">
+      <c r="A522" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B522" s="2" t="s">
+      <c r="B522" s="1" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="523" ht="15" spans="1:2">
-      <c r="A523" s="2" t="s">
+      <c r="A523" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B523" s="2" t="s">
+      <c r="B523" s="1" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="524" ht="15" spans="1:2">
-      <c r="A524" s="2" t="s">
+      <c r="A524" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B524" s="2" t="s">
+      <c r="B524" s="1" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="525" ht="15" spans="1:2">
-      <c r="A525" s="2" t="s">
+      <c r="A525" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B525" s="2" t="s">
+      <c r="B525" s="1" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="526" ht="15" spans="1:2">
-      <c r="A526" s="2" t="s">
+      <c r="A526" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B526" s="2" t="s">
+      <c r="B526" s="1" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="527" ht="15" spans="1:2">
-      <c r="A527" s="2" t="s">
+      <c r="A527" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B527" s="2" t="s">
+      <c r="B527" s="1" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="528" ht="15" spans="1:2">
-      <c r="A528" s="2" t="s">
+      <c r="A528" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="B528" s="2" t="s">
+      <c r="B528" s="1" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="529" ht="15" spans="1:2">
-      <c r="A529" s="2" t="s">
+      <c r="A529" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="B529" s="2" t="s">
+      <c r="B529" s="1" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="530" ht="15" spans="1:2">
-      <c r="A530" s="2" t="s">
+      <c r="A530" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="B530" s="2" t="s">
+      <c r="B530" s="1" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="531" ht="15" spans="1:2">
-      <c r="A531" s="2" t="s">
+      <c r="A531" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B531" s="2" t="s">
+      <c r="B531" s="1" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="532" ht="15" spans="1:2">
-      <c r="A532" s="2" t="s">
+      <c r="A532" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="B532" s="2" t="s">
+      <c r="B532" s="1" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="533" ht="15" spans="1:2">
-      <c r="A533" s="2" t="s">
+      <c r="A533" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="B533" s="2" t="s">
+      <c r="B533" s="1" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="534" ht="15" spans="1:2">
-      <c r="A534" s="2" t="s">
+      <c r="A534" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B534" s="2" t="s">
+      <c r="B534" s="1" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="535" ht="15" spans="1:2">
-      <c r="A535" s="2" t="s">
+      <c r="A535" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="B535" s="2" t="s">
+      <c r="B535" s="1" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="536" ht="15" spans="1:2">
-      <c r="A536" s="2" t="s">
+      <c r="A536" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="B536" s="2" t="s">
+      <c r="B536" s="1" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="537" ht="15" spans="1:2">
-      <c r="A537" s="2" t="s">
+      <c r="A537" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="B537" s="2" t="s">
+      <c r="B537" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="538" ht="15" spans="1:2">
-      <c r="A538" s="2" t="s">
+      <c r="A538" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="B538" s="2" t="s">
+      <c r="B538" s="1" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="539" ht="15" spans="1:2">
-      <c r="A539" s="2" t="s">
+      <c r="A539" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="B539" s="2" t="s">
+      <c r="B539" s="1" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="540" ht="15" spans="1:2">
-      <c r="A540" s="2" t="s">
+      <c r="A540" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="B540" s="2" t="s">
+      <c r="B540" s="1" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="541" ht="15" spans="1:2">
-      <c r="A541" s="2" t="s">
+      <c r="A541" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="B541" s="2" t="s">
+      <c r="B541" s="1" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="542" ht="15" spans="1:2">
-      <c r="A542" s="2" t="s">
+      <c r="A542" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="B542" s="2" t="s">
+      <c r="B542" s="1" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="543" ht="15" spans="1:2">
-      <c r="A543" s="2" t="s">
+      <c r="A543" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="B543" s="2" t="s">
+      <c r="B543" s="1" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="544" ht="15" spans="1:2">
-      <c r="A544" s="2" t="s">
+      <c r="A544" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="B544" s="2" t="s">
+      <c r="B544" s="1" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="545" ht="15" spans="1:2">
-      <c r="A545" s="2" t="s">
+      <c r="A545" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="B545" s="2" t="s">
+      <c r="B545" s="1" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="546" ht="15" spans="1:2">
-      <c r="A546" s="2" t="s">
+      <c r="A546" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="B546" s="2" t="s">
+      <c r="B546" s="1" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="547" ht="15" spans="1:2">
-      <c r="A547" s="2" t="s">
+      <c r="A547" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="B547" s="2" t="s">
+      <c r="B547" s="1" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="548" ht="15" spans="1:2">
-      <c r="A548" s="2" t="s">
+      <c r="A548" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B548" s="2" t="s">
+      <c r="B548" s="1" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="549" ht="15" spans="1:2">
-      <c r="A549" s="2" t="s">
+      <c r="A549" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="B549" s="2" t="s">
+      <c r="B549" s="1" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="550" ht="15" spans="1:2">
-      <c r="A550" s="2" t="s">
+      <c r="A550" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="B550" s="2" t="s">
+      <c r="B550" s="1" t="s">
         <v>1096</v>
       </c>
     </row>
     <row r="551" ht="15" spans="1:2">
-      <c r="A551" s="2" t="s">
+      <c r="A551" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="B551" s="2" t="s">
+      <c r="B551" s="1" t="s">
         <v>1098</v>
       </c>
     </row>
     <row r="552" ht="15" spans="1:2">
-      <c r="A552" s="2" t="s">
+      <c r="A552" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="B552" s="2" t="s">
+      <c r="B552" s="1" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="553" ht="15" spans="1:2">
-      <c r="A553" s="2" t="s">
+      <c r="A553" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="B553" s="2" t="s">
+      <c r="B553" s="1" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="554" ht="15" spans="1:2">
-      <c r="A554" s="2" t="s">
+      <c r="A554" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="B554" s="2" t="s">
+      <c r="B554" s="1" t="s">
         <v>1104</v>
       </c>
     </row>
     <row r="555" ht="15" spans="1:2">
-      <c r="A555" s="2" t="s">
+      <c r="A555" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="B555" s="2" t="s">
+      <c r="B555" s="1" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="556" ht="15" spans="1:2">
-      <c r="A556" s="2" t="s">
+      <c r="A556" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="B556" s="2" t="s">
+      <c r="B556" s="1" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="557" ht="15" spans="1:2">
-      <c r="A557" s="2" t="s">
+      <c r="A557" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="B557" s="2" t="s">
+      <c r="B557" s="1" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="558" ht="15" spans="1:2">
-      <c r="A558" s="2" t="s">
+      <c r="A558" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="B558" s="2" t="s">
+      <c r="B558" s="1" t="s">
         <v>1112</v>
       </c>
     </row>
     <row r="559" ht="15" spans="1:2">
-      <c r="A559" s="2" t="s">
+      <c r="A559" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="B559" s="2" t="s">
+      <c r="B559" s="1" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="560" ht="15" spans="1:2">
-      <c r="A560" s="2" t="s">
+      <c r="A560" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="B560" s="2" t="s">
+      <c r="B560" s="1" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -10447,1454 +10439,1450 @@
       </c>
     </row>
     <row r="601" ht="15" spans="1:2">
-      <c r="A601" s="1"/>
-      <c r="B601" s="1"/>
+      <c r="A601" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1198</v>
+      </c>
     </row>
     <row r="602" ht="15" spans="1:2">
       <c r="A602" s="1" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="603" ht="15" spans="1:2">
       <c r="A603" s="1" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>1200</v>
+        <v>943</v>
       </c>
     </row>
     <row r="604" ht="15" spans="1:2">
       <c r="A604" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>943</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="605" ht="15" spans="1:2">
       <c r="A605" s="1" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="606" ht="15" spans="1:2">
       <c r="A606" s="1" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="607" ht="15" spans="1:2">
       <c r="A607" s="1" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="608" ht="15" spans="1:2">
       <c r="A608" s="1" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="609" ht="15" spans="1:2">
       <c r="A609" s="1" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>1211</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="610" ht="15" spans="1:2">
       <c r="A610" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
     </row>
     <row r="611" ht="15" spans="1:2">
       <c r="A611" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>969</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="612" ht="15" spans="1:2">
       <c r="A612" s="1" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="613" ht="15" spans="1:2">
       <c r="A613" s="1" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="614" ht="15" spans="1:2">
       <c r="A614" s="1" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="615" ht="15" spans="1:2">
       <c r="A615" s="1" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="616" ht="15" spans="1:2">
       <c r="A616" s="1" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>1223</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="617" ht="15" spans="1:2">
       <c r="A617" s="1" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>1031</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="618" ht="15" spans="1:2">
       <c r="A618" s="1" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="619" ht="15" spans="1:2">
       <c r="A619" s="1" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="620" ht="15" spans="1:2">
       <c r="A620" s="1" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="621" ht="15" spans="1:2">
       <c r="A621" s="1" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="622" ht="15" spans="1:2">
       <c r="A622" s="1" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="623" ht="15" spans="1:2">
       <c r="A623" s="1" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="624" ht="15" spans="1:2">
       <c r="A624" s="1" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="625" ht="15" spans="1:2">
       <c r="A625" s="1" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="626" ht="15" spans="1:2">
       <c r="A626" s="1" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="627" ht="15" spans="1:2">
       <c r="A627" s="1" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="628" ht="15" spans="1:2">
       <c r="A628" s="1" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="629" ht="15" spans="1:2">
       <c r="A629" s="1" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="630" ht="15" spans="1:2">
       <c r="A630" s="1" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>1250</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="631" ht="15" spans="1:2">
       <c r="A631" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>1092</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="632" ht="15" spans="1:2">
       <c r="A632" s="1" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="633" ht="15" spans="1:2">
       <c r="A633" s="1" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="634" ht="15" spans="1:2">
       <c r="A634" s="1" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>1257</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="635" ht="15" spans="1:2">
       <c r="A635" s="1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>1116</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="636" ht="15" spans="1:2">
       <c r="A636" s="1" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="637" ht="15" spans="1:2">
       <c r="A637" s="1" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="638" ht="15" spans="1:2">
       <c r="A638" s="1" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="639" ht="15" spans="1:2">
       <c r="A639" s="1" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="640" ht="15" spans="1:2">
       <c r="A640" s="1" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="641" ht="15" spans="1:2">
       <c r="A641" s="1" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="642" ht="15" spans="1:2">
       <c r="A642" s="1" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="643" ht="15" spans="1:2">
       <c r="A643" s="1" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="644" ht="15" spans="1:2">
       <c r="A644" s="1" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="645" ht="15" spans="1:2">
       <c r="A645" s="1" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="646" ht="15" spans="1:2">
       <c r="A646" s="1" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="647" ht="15" spans="1:2">
       <c r="A647" s="1" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="648" ht="15" spans="1:2">
       <c r="A648" s="1" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="649" ht="15" spans="1:2">
       <c r="A649" s="1" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="650" ht="15" spans="1:2">
       <c r="A650" s="1" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="651" ht="15" spans="1:2">
       <c r="A651" s="1" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="652" ht="15" spans="1:2">
       <c r="A652" s="1" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="653" ht="15" spans="1:2">
       <c r="A653" s="1" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="654" ht="15" spans="1:2">
       <c r="A654" s="1" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="655" ht="15" spans="1:2">
       <c r="A655" s="1" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="656" ht="15" spans="1:2">
       <c r="A656" s="1" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="657" ht="15" spans="1:2">
       <c r="A657" s="1" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="658" ht="15" spans="1:2">
       <c r="A658" s="1" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="659" ht="15" spans="1:2">
       <c r="A659" s="1" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="660" ht="15" spans="1:2">
       <c r="A660" s="1" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="661" ht="15" spans="1:2">
       <c r="A661" s="1" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="662" ht="15" spans="1:2">
       <c r="A662" s="1" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="663" ht="15" spans="1:2">
       <c r="A663" s="1" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="664" ht="15" spans="1:2">
       <c r="A664" s="1" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="665" ht="15" spans="1:2">
       <c r="A665" s="1" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="666" ht="15" spans="1:2">
       <c r="A666" s="1" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="667" ht="15" spans="1:2">
       <c r="A667" s="1" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="668" ht="15" spans="1:2">
       <c r="A668" s="1" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="669" ht="15" spans="1:2">
       <c r="A669" s="1" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="670" ht="15" spans="1:2">
       <c r="A670" s="1" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="671" ht="15" spans="1:2">
       <c r="A671" s="1" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="672" ht="15" spans="1:2">
       <c r="A672" s="1" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="673" ht="15" spans="1:2">
       <c r="A673" s="1" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="674" ht="15" spans="1:2">
       <c r="A674" s="1" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="675" ht="15" spans="1:2">
       <c r="A675" s="1" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="676" ht="15" spans="1:2">
       <c r="A676" s="1" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="677" ht="15" spans="1:2">
       <c r="A677" s="1" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="678" ht="15" spans="1:2">
       <c r="A678" s="1" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="679" ht="15" spans="1:2">
       <c r="A679" s="1" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="680" ht="15" spans="1:2">
       <c r="A680" s="1" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="681" ht="15" spans="1:2">
       <c r="A681" s="1" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="682" ht="15" spans="1:2">
       <c r="A682" s="1" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="683" ht="15" spans="1:2">
       <c r="A683" s="1" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="684" ht="15" spans="1:2">
       <c r="A684" s="1" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="685" ht="15" spans="1:2">
       <c r="A685" s="1" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="686" ht="15" spans="1:2">
       <c r="A686" s="1" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="687" ht="15" spans="1:2">
       <c r="A687" s="1" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="688" ht="15" spans="1:2">
       <c r="A688" s="1" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="689" ht="15" spans="1:2">
       <c r="A689" s="1" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="690" ht="15" spans="1:2">
       <c r="A690" s="1" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="691" ht="15" spans="1:2">
       <c r="A691" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="692" ht="15" spans="1:2">
       <c r="A692" s="1" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="693" ht="15" spans="1:2">
       <c r="A693" s="1" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="694" ht="15" spans="1:2">
       <c r="A694" s="1" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="695" ht="15" spans="1:2">
       <c r="A695" s="1" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="696" ht="15" spans="1:2">
       <c r="A696" s="1" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="697" ht="15" spans="1:2">
       <c r="A697" s="1" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="698" ht="15" spans="1:2">
       <c r="A698" s="1" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="699" ht="15" spans="1:2">
       <c r="A699" s="1" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="700" ht="15" spans="1:2">
       <c r="A700" s="1" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="701" ht="15" spans="1:2">
       <c r="A701" s="1" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="702" ht="15" spans="1:2">
       <c r="A702" s="1" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="703" ht="15" spans="1:2">
       <c r="A703" s="1" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="704" ht="15" spans="1:2">
       <c r="A704" s="1" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="705" ht="15" spans="1:2">
       <c r="A705" s="1" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="706" ht="15" spans="1:2">
       <c r="A706" s="1" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="707" ht="15" spans="1:2">
       <c r="A707" s="1" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="708" ht="15" spans="1:2">
       <c r="A708" s="1" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="709" ht="15" spans="1:2">
       <c r="A709" s="1" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="710" ht="15" spans="1:2">
       <c r="A710" s="1" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="711" ht="15" spans="1:2">
       <c r="A711" s="1" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="712" ht="15" spans="1:2">
       <c r="A712" s="1" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="713" ht="15" spans="1:2">
       <c r="A713" s="1" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="714" ht="15" spans="1:2">
       <c r="A714" s="1" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="715" ht="15" spans="1:2">
       <c r="A715" s="1" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="716" ht="15" spans="1:2">
       <c r="A716" s="1" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="717" ht="15" spans="1:2">
       <c r="A717" s="1" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="718" ht="15" spans="1:2">
       <c r="A718" s="1" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="719" ht="15" spans="1:2">
       <c r="A719" s="1" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="720" ht="15" spans="1:2">
       <c r="A720" s="1" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="721" ht="15" spans="1:2">
       <c r="A721" s="1" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="722" ht="15" spans="1:2">
       <c r="A722" s="1" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="723" ht="15" spans="1:2">
       <c r="A723" s="1" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="724" ht="15" spans="1:2">
       <c r="A724" s="1" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="725" ht="15" spans="1:2">
       <c r="A725" s="1" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="726" ht="15" spans="1:2">
       <c r="A726" s="1" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="727" ht="15" spans="1:2">
       <c r="A727" s="1" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="728" ht="15" spans="1:2">
       <c r="A728" s="1" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="729" ht="15" spans="1:2">
       <c r="A729" s="1" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="730" ht="15" spans="1:2">
       <c r="A730" s="1" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="731" ht="15" spans="1:2">
       <c r="A731" s="1" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="732" ht="15" spans="1:2">
       <c r="A732" s="1" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="733" ht="15" spans="1:2">
       <c r="A733" s="1" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="734" ht="15" spans="1:2">
       <c r="A734" s="1" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="735" ht="15" spans="1:2">
       <c r="A735" s="1" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="736" ht="15" spans="1:2">
       <c r="A736" s="1" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="737" ht="15" spans="1:2">
       <c r="A737" s="1" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="738" ht="15" spans="1:2">
       <c r="A738" s="1" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="739" ht="15" spans="1:2">
       <c r="A739" s="1" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="740" ht="15" spans="1:2">
       <c r="A740" s="1" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="741" ht="15" spans="1:2">
       <c r="A741" s="1" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="742" ht="15" spans="1:2">
       <c r="A742" s="1" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="743" ht="15" spans="1:2">
       <c r="A743" s="1" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="744" ht="15" spans="1:2">
       <c r="A744" s="1" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="745" ht="15" spans="1:2">
       <c r="A745" s="1" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="746" ht="15" spans="1:2">
       <c r="A746" s="1" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="747" ht="15" spans="1:2">
       <c r="A747" s="1" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="748" ht="15" spans="1:2">
       <c r="A748" s="1" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="749" ht="15" spans="1:2">
       <c r="A749" s="1" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="750" ht="15" spans="1:2">
       <c r="A750" s="1" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="751" ht="15" spans="1:2">
       <c r="A751" s="1" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="752" ht="15" spans="1:2">
       <c r="A752" s="1" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="753" ht="15" spans="1:2">
       <c r="A753" s="1" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="754" ht="15" spans="1:2">
       <c r="A754" s="1" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="755" ht="15" spans="1:2">
       <c r="A755" s="1" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="756" ht="15" spans="1:2">
       <c r="A756" s="1" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="757" ht="15" spans="1:2">
       <c r="A757" s="1" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="758" ht="15" spans="1:2">
       <c r="A758" s="1" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="759" ht="15" spans="1:2">
       <c r="A759" s="1" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="760" ht="15" spans="1:2">
       <c r="A760" s="1" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="761" ht="15" spans="1:2">
       <c r="A761" s="1" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="762" ht="15" spans="1:2">
       <c r="A762" s="1" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="763" ht="15" spans="1:2">
       <c r="A763" s="1" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="764" ht="15" spans="1:2">
       <c r="A764" s="1" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="765" ht="15" spans="1:2">
       <c r="A765" s="1" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="766" ht="15" spans="1:2">
       <c r="A766" s="1" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="767" ht="15" spans="1:2">
       <c r="A767" s="1" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="768" ht="15" spans="1:2">
       <c r="A768" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="769" ht="15" spans="1:2">
       <c r="A769" s="1" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="770" ht="15" spans="1:2">
       <c r="A770" s="1" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="771" ht="15" spans="1:2">
       <c r="A771" s="1" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="772" ht="15" spans="1:2">
       <c r="A772" s="1" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="773" ht="15" spans="1:2">
       <c r="A773" s="1" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="774" ht="15" spans="1:2">
       <c r="A774" s="1" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="775" ht="15" spans="1:2">
       <c r="A775" s="1" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="776" ht="15" spans="1:2">
       <c r="A776" s="1" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="777" ht="15" spans="1:2">
       <c r="A777" s="1" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="778" ht="15" spans="1:2">
       <c r="A778" s="1" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="779" ht="15" spans="1:2">
       <c r="A779" s="1" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="780" ht="15" spans="1:2">
       <c r="A780" s="1" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="781" ht="15" spans="1:2">
       <c r="A781" s="1" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="782" ht="15" spans="1:2">
-      <c r="A782" s="1" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B782" s="1" t="s">
         <v>1552</v>
       </c>
     </row>
